--- a/medicine/Handicap/Mission_Handicap/Mission_Handicap.xlsx
+++ b/medicine/Handicap/Mission_Handicap/Mission_Handicap.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La mission handicap est un département spécifique des Ressources Humaines d'une entreprise privée ou d'une administration publique française.
 Elle est parfois intégrée à la Mission Diversité, chargée non seulement de l'emploi des Travailleurs handicapés mais aussi des seniors et des personnes vulnérables.
@@ -513,7 +525,9 @@
           <t>Cadre juridique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La loi du 10 juillet 1987 oblige tout employeur du secteur privé et tout établissement public de 20 salariés à employer l'équivalent de 6 % de travailleurs handicapés dans son effectif.
 Dans le cas de non-respect de cette loi, l'entreprise se voit dans l'obligation de verser à l'AGEFIPH ou le FIPHFP(public) une « contribution obligatoire » pour discrimination à l'égard des travailleurs handicapés (TH). 
@@ -548,7 +562,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La mission handicap est chargée de mettre en œuvre la politique handicap de son entreprise et s'acquitter de son obligation d'emploi. 
 Elle peut le faire par le biais d'une convention collective passée avec l'AGEFIPH, le FIPHFP ou en passant un accord avec les partenaires sociaux.
